--- a/ResearchCompanies.xlsx
+++ b/ResearchCompanies.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\financial_markets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98ED614-ED88-4D4E-9D51-08FC6FFA3E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32565C7-2543-489E-B2F9-E5A1F33FF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="0" windowWidth="19635" windowHeight="15585" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Manufacturing" sheetId="6" r:id="rId2"/>
+    <sheet name="Construction" sheetId="8" r:id="rId3"/>
+    <sheet name="Services" sheetId="7" r:id="rId4"/>
+    <sheet name="Retail" sheetId="9" r:id="rId5"/>
+    <sheet name="Consumer" sheetId="5" r:id="rId6"/>
+    <sheet name="Policy" sheetId="10" r:id="rId7"/>
+    <sheet name="USA" sheetId="2" r:id="rId8"/>
+    <sheet name="EA19" sheetId="3" r:id="rId9"/>
+    <sheet name="CHN" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stock_Models!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stock_Models!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ticker</t>
   </si>
@@ -54,9 +63,6 @@
     <t>Autodesk, Inc.</t>
   </si>
   <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -75,7 +81,13 @@
     <t>P/E</t>
   </si>
   <si>
-    <t>Company Model</t>
+    <t>Link to Company Model in GOOGL sheets</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Industrial Software: CAD/CAM</t>
   </si>
 </sst>
 </file>
@@ -83,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00\ \x"/>
+    <numFmt numFmtId="164" formatCode="0.00\ \x"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +117,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,11 +163,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,81 +487,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
-    <col min="2" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
         <v>8.43</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="5">
         <v>51.99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}"/>
+  <autoFilter ref="A1:J1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{838E9C74-FFFC-4C2D-84DC-ED8A19C0B2CF}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://finviz.com/quote.ashx?t=ADSK&amp;ty=c&amp;ta=1&amp;p=d" xr:uid="{424243BD-AFF1-40CE-87CC-D2FC7816C728}"/>
@@ -536,4 +575,120 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A390ED-3F0C-43AD-80E0-818DFB9558DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEF32-7FB6-4362-B407-292682688426}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E17835-2379-43BE-B3F5-5B6777D5574F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D99F08-F5D1-4254-A353-E6513CC22D22}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A3F9ED-3EC7-405F-AA27-DD00A79FCFBC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49CB779-CAC6-4165-BF09-50D59BE6D85F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D66460-C667-48D5-A757-63F61289E119}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8272D9-1D81-417F-AF33-99C59AA537FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D8121-07DE-4867-A36C-9DB23CFDBD0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ResearchCompanies.xlsx
+++ b/ResearchCompanies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\financial_markets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32565C7-2543-489E-B2F9-E5A1F33FF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61857AA6-00AD-48CE-853A-6F90912FF460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
+    <workbookView xWindow="10380" yWindow="0" windowWidth="18525" windowHeight="15585" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_Models" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Ticker</t>
   </si>
@@ -88,6 +88,51 @@
   </si>
   <si>
     <t>Industrial Software: CAD/CAM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Apparel &amp; Branded Products</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>PLBY Group, Inc.</t>
+  </si>
+  <si>
+    <t>PLBY</t>
+  </si>
+  <si>
+    <t>https://www.plbygroup.com/investors</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1W1XB3eC3grSWuMBurlZVC3koHUieOZuSY1wx-dHEPfo/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>PureCycle Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Pollution &amp; Treatment Controls</t>
+  </si>
+  <si>
+    <t>Recycling Plastic Products</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/16rZNagSxm3Mlc2RncGGKr7H4WvoPnv9iKSmkjbdFEJI/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://ir.purecycle.com/sec-filings-reports</t>
+  </si>
+  <si>
+    <t>Leisure</t>
   </si>
 </sst>
 </file>
@@ -99,14 +144,6 @@
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,12 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -136,7 +167,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,17 +205,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,91 +546,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="10.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="12" customWidth="1"/>
+    <col min="6" max="8" width="23.5703125" style="12" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I4" s="6">
         <v>8.43</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J4" s="6">
         <v>51.99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}"/>
+  <autoFilter ref="A1:J1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{838E9C74-FFFC-4C2D-84DC-ED8A19C0B2CF}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://finviz.com/quote.ashx?t=ADSK&amp;ty=c&amp;ta=1&amp;p=d" xr:uid="{424243BD-AFF1-40CE-87CC-D2FC7816C728}"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://www.autodesk.com/" xr:uid="{C9AC1A6B-0A5B-40AE-815B-1FFFD5692B79}"/>
-    <hyperlink ref="F2" r:id="rId4" display="https://finviz.com/screener.ashx?v=111&amp;f=sec_technology" xr:uid="{85B9560A-DA97-4B5E-8C3A-194DA60D996C}"/>
-    <hyperlink ref="G2" r:id="rId5" display="https://finviz.com/screener.ashx?v=111&amp;f=ind_softwareapplication" xr:uid="{F91CAA93-804B-437A-AD6F-EC390027909F}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{AA03F908-DEE4-4D32-A159-8807C9B8AA88}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{838E9C74-FFFC-4C2D-84DC-ED8A19C0B2CF}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://finviz.com/quote.ashx?t=ADSK&amp;ty=c&amp;ta=1&amp;p=d" xr:uid="{424243BD-AFF1-40CE-87CC-D2FC7816C728}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.autodesk.com/" xr:uid="{C9AC1A6B-0A5B-40AE-815B-1FFFD5692B79}"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://finviz.com/screener.ashx?v=111&amp;f=sec_technology" xr:uid="{85B9560A-DA97-4B5E-8C3A-194DA60D996C}"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://finviz.com/screener.ashx?v=111&amp;f=ind_softwareapplication" xr:uid="{F91CAA93-804B-437A-AD6F-EC390027909F}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{AA03F908-DEE4-4D32-A159-8807C9B8AA88}"/>
+    <hyperlink ref="F2" r:id="rId7" display="https://finviz.com/screener.ashx?v=111&amp;f=sec_consumercyclical" xr:uid="{BE6E604D-E471-4CF4-9181-19DCC1F1A24C}"/>
+    <hyperlink ref="D2" r:id="rId8" display="https://www.plbygroup.com/" xr:uid="{E90D3C0A-037D-46B2-B2F1-C1291B9D163F}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://finviz.com/quote.ashx?t=PLBY&amp;ty=c&amp;ta=1&amp;p=d" xr:uid="{07236011-DD20-495D-89F6-DFBBA9B467AD}"/>
+    <hyperlink ref="C3" r:id="rId10" display="https://finviz.com/quote.ashx?t=PCT&amp;ty=c&amp;ta=1&amp;p=d" xr:uid="{0532947E-BAF2-40AF-BBC1-03D21CE50E49}"/>
+    <hyperlink ref="D3" r:id="rId11" display="https://purecycletech.com/" xr:uid="{480A7A9F-CAB0-4982-BD3A-393838D8E0CC}"/>
+    <hyperlink ref="F3" r:id="rId12" display="https://finviz.com/screener.ashx?v=111&amp;f=sec_industrials" xr:uid="{A8B2D946-5294-4425-9F91-47F439085197}"/>
+    <hyperlink ref="G3" r:id="rId13" display="https://finviz.com/screener.ashx?v=111&amp;f=ind_pollutiontreatmentcontrols" xr:uid="{65C3E9DB-3280-4557-A712-90A3C6AA9E10}"/>
+    <hyperlink ref="G2" r:id="rId14" display="https://finviz.com/screener.ashx?v=111&amp;f=ind_leisure" xr:uid="{69EA8C43-51D9-4CCA-ACDB-9B3506D098F8}"/>
+    <hyperlink ref="A3" r:id="rId15" xr:uid="{9C113C09-0BE4-4B85-ACE3-FF5065FC0BA1}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{9C0144DB-2BF7-4D47-8A0F-EB71F3280324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A3F9ED-3EC7-405F-AA27-DD00A79FCFBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
